--- a/Results/Results_BAU_2040_specific_reserve_margin_high.xlsx
+++ b/Results/Results_BAU_2040_specific_reserve_margin_high.xlsx
@@ -533,52 +533,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -586,52 +586,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -639,52 +639,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="D4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>0.01</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>697.9</v>
@@ -830,10 +830,10 @@
         <v>697.9</v>
       </c>
       <c r="H2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>697.9</v>
@@ -842,10 +842,10 @@
         <v>697.9</v>
       </c>
       <c r="L2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>697.9</v>
@@ -854,10 +854,10 @@
         <v>697.9</v>
       </c>
       <c r="P2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>697.9</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>697.9</v>
@@ -881,52 +881,52 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1356.935744603176</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>891.2292595873198</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1491.416366526006</v>
+        <v>2244.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1004.848495149412</v>
+        <v>2244.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1342.784694774229</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>830.8362308012015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1521.772650836489</v>
+        <v>2244.8</v>
       </c>
       <c r="K3" t="n">
-        <v>924.7809422462742</v>
+        <v>2244.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1067.889139709978</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>712.515194812072</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1314.117406733653</v>
+        <v>2244.8</v>
       </c>
       <c r="O3" t="n">
-        <v>820.976144468774</v>
+        <v>2244.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1293.164723277244</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>753.2336994811706</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1395.280524784838</v>
+        <v>2244.8</v>
       </c>
       <c r="S3" t="n">
-        <v>895.5658716316743</v>
+        <v>2244.8</v>
       </c>
     </row>
     <row r="4">
@@ -944,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>730</v>
@@ -956,10 +956,10 @@
         <v>730</v>
       </c>
       <c r="H4" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>730</v>
@@ -968,10 +968,10 @@
         <v>730</v>
       </c>
       <c r="L4" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>730</v>
@@ -980,16 +980,205 @@
         <v>730</v>
       </c>
       <c r="P4" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>730</v>
       </c>
       <c r="S4" t="n">
         <v>730</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1086.957556493296</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7030.74336567059</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2017.282327756745</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5097.227051691509</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1368.95062177565</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5556.559036874843</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1727.863168101081</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7759.294189122173</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3014.954502109916</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10313.47257275883</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5050.610237452675</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15805.48586630589</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7474.43889899521</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15771.5578329684</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4456.992128227431</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11952.71192552489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5395.826723863267</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8372.45188992353</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7204.469073574302</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13269.37234046014</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6564.314588107385</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10517.62931453097</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6517.411544176892</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9647.415830963802</v>
       </c>
     </row>
   </sheetData>
@@ -1123,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>2337.7</v>
@@ -1135,10 +1324,10 @@
         <v>2337.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1205</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1205</v>
@@ -1147,10 +1336,10 @@
         <v>1205</v>
       </c>
       <c r="L2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>2337.7</v>
@@ -1159,10 +1348,10 @@
         <v>2337.7</v>
       </c>
       <c r="P2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2337.7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>2337.7</v>
@@ -1186,10 +1375,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>2425</v>
@@ -1198,10 +1387,10 @@
         <v>2425</v>
       </c>
       <c r="H3" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1250</v>
@@ -1210,10 +1399,10 @@
         <v>1250</v>
       </c>
       <c r="L3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>2425</v>
@@ -1222,10 +1411,10 @@
         <v>2425</v>
       </c>
       <c r="P3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>2425</v>
@@ -1249,10 +1438,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>2716</v>
@@ -1261,10 +1450,10 @@
         <v>2716</v>
       </c>
       <c r="H4" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>1400</v>
@@ -1273,10 +1462,10 @@
         <v>1400</v>
       </c>
       <c r="L4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>2716</v>
@@ -1285,10 +1474,10 @@
         <v>2716</v>
       </c>
       <c r="P4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2716</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>2716</v>
@@ -1312,10 +1501,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>2795.734</v>
@@ -1324,10 +1513,10 @@
         <v>2795.734</v>
       </c>
       <c r="H5" t="n">
-        <v>1441.1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1441.1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>1441.1</v>
@@ -1336,10 +1525,10 @@
         <v>1441.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>2795.734</v>
@@ -1348,10 +1537,10 @@
         <v>2795.734</v>
       </c>
       <c r="P5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2795.734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>2795.734</v>
@@ -1375,10 +1564,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>745.542</v>
@@ -1387,10 +1576,10 @@
         <v>745.542</v>
       </c>
       <c r="H6" t="n">
-        <v>384.3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>384.3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>384.3</v>
@@ -1399,10 +1588,10 @@
         <v>384.3</v>
       </c>
       <c r="L6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>745.542</v>
@@ -1411,10 +1600,10 @@
         <v>745.542</v>
       </c>
       <c r="P6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>745.542</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>745.542</v>
@@ -1438,10 +1627,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>922.3729999999999</v>
@@ -1450,10 +1639,10 @@
         <v>922.3729999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>475.45</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>475.45</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>475.45</v>
@@ -1462,10 +1651,10 @@
         <v>475.45</v>
       </c>
       <c r="L7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>922.3729999999999</v>
@@ -1474,10 +1663,10 @@
         <v>922.3729999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>922.3729999999999</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>922.3729999999999</v>
@@ -1597,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>348.3300264602657</v>
+        <v>5019.095035978829</v>
       </c>
       <c r="C2" t="n">
-        <v>348.3300264602657</v>
+        <v>8123.804936084538</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1609,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6483151728375</v>
+        <v>5113.435368171808</v>
       </c>
       <c r="G2" t="n">
-        <v>455.6483151728375</v>
+        <v>8526.425127991992</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1621,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>444.1308669793283</v>
+        <v>6946.07240193348</v>
       </c>
       <c r="K2" t="n">
-        <v>444.1308669793283</v>
+        <v>9315.23203458619</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1633,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>342.2063602120054</v>
+        <v>5444.235178151705</v>
       </c>
       <c r="O2" t="n">
-        <v>342.2063602120054</v>
+        <v>9043.775336792198</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1650,10 +1839,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>348.3300264602657</v>
+        <v>12417.96383095237</v>
       </c>
       <c r="C3" t="n">
-        <v>348.3300264602657</v>
+        <v>19403.56110619021</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1662,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>455.6483151728375</v>
+        <v>12630.22957838657</v>
       </c>
       <c r="G3" t="n">
-        <v>455.6483151728375</v>
+        <v>20309.45653798198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1674,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>444.1308669793283</v>
+        <v>16753.66290435033</v>
       </c>
       <c r="K3" t="n">
-        <v>444.1308669793283</v>
+        <v>22084.27207781893</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1686,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>342.2063602120054</v>
+        <v>13374.52915084134</v>
       </c>
       <c r="O3" t="n">
-        <v>342.2063602120054</v>
+        <v>21473.49450778244</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1703,10 +1892,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>348.3300264602657</v>
+        <v>12158.41631296295</v>
       </c>
       <c r="C4" t="n">
-        <v>348.3300264602657</v>
+        <v>17591.65863814794</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1715,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>455.6483151728375</v>
+        <v>12323.51189430066</v>
       </c>
       <c r="G4" t="n">
-        <v>455.6483151728375</v>
+        <v>18296.24397398599</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1727,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>444.1308669793283</v>
+        <v>15530.62670338359</v>
       </c>
       <c r="K4" t="n">
-        <v>444.1308669793283</v>
+        <v>19676.65606052583</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1739,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>342.2063602120054</v>
+        <v>12902.41156176548</v>
       </c>
       <c r="O4" t="n">
-        <v>342.2063602120054</v>
+        <v>19201.60683938635</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1762,7 +1951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1882,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1894,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1906,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1918,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>697.9</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1945,52 +2134,52 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>887.8642553968244</v>
+        <v>2244.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1353.57074041268</v>
+        <v>2244.8</v>
       </c>
       <c r="F3" t="n">
-        <v>753.3836334739943</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1239.951504850588</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>902.0153052257712</v>
+        <v>2244.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1413.963769198799</v>
+        <v>2244.8</v>
       </c>
       <c r="J3" t="n">
-        <v>723.0273491635116</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1320.019057753726</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1176.910860290022</v>
+        <v>2244.8</v>
       </c>
       <c r="M3" t="n">
-        <v>1532.284805187928</v>
+        <v>2244.8</v>
       </c>
       <c r="N3" t="n">
-        <v>930.6825932663473</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1423.823855531226</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>951.6352767227557</v>
+        <v>2244.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1491.56630051883</v>
+        <v>2244.8</v>
       </c>
       <c r="R3" t="n">
-        <v>849.5194752151621</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1349.234128368326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2008,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2020,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2032,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2044,16 +2233,205 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6913.042443506703</v>
+      </c>
+      <c r="G5" t="n">
+        <v>969.2566343294102</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5982.717672243256</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2902.772948308491</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6631.04937822435</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2443.440963125157</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6272.136831898919</v>
+      </c>
+      <c r="S5" t="n">
+        <v>240.7058108778274</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14985.04549789009</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7686.527427241173</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12949.38976254733</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2194.514133694109</v>
+      </c>
+      <c r="L6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10525.56110100479</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2228.442167031604</v>
+      </c>
+      <c r="P6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>13543.00787177257</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6047.288074475109</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9604.173276136733</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6627.54811007647</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7795.530926425698</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1730.627659539865</v>
+      </c>
+      <c r="L7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8435.685411892615</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4482.37068546903</v>
+      </c>
+      <c r="P7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8482.588455823108</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5352.584169036198</v>
       </c>
     </row>
   </sheetData>
@@ -2169,52 +2547,52 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>900</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-900</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-900</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-900</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>900</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>900</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>900</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>900</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2224,16 +2602,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="C3" t="n">
         <v>-900</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E3" t="n">
-        <v>-900</v>
+        <v>900</v>
       </c>
       <c r="F3" t="n">
         <v>-900</v>
@@ -2242,7 +2620,7 @@
         <v>-900</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="I3" t="n">
         <v>-900</v>
@@ -2257,19 +2635,19 @@
         <v>-900</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>-900</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>-900</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="Q3" t="n">
-        <v>-900</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4">
@@ -2288,7 +2666,7 @@
         <v>-900</v>
       </c>
       <c r="E4" t="n">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>-900</v>
@@ -2300,7 +2678,7 @@
         <v>-900</v>
       </c>
       <c r="I4" t="n">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>-900</v>
@@ -2309,10 +2687,10 @@
         <v>-900</v>
       </c>
       <c r="L4" t="n">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-900</v>
+        <v>900</v>
       </c>
       <c r="N4" t="n">
         <v>-900</v>
@@ -2324,7 +2702,7 @@
         <v>-900</v>
       </c>
       <c r="Q4" t="n">
-        <v>-900</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2448,52 +2826,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2506,52 +2884,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2665,52 +3043,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2235.165009518564</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3539.874909624273</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1686.957556493297</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3130.74336567059</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1554.887052998971</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4967.876812819155</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2617.282327756745</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4797.227051691509</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2266.341534954152</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4635.501167606863</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1068.950621775651</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4356.559036874843</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2666.428817939701</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4465.968976580193</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2327.863168101081</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3859.294189122174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2718,52 +3096,52 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3471.698059888926</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11823.00182014262</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1668.33813558391</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10353.42407760942</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6981.796568439502</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15172.97199200795</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3673.637586616187</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14125.50492405962</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8900.642897661024</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>14586.62601602752</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5405.121492261558</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13295.38168849962</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4498.158067352086</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14037.05444808927</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3206.511603442592</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12101.94605389321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2771,52 +3149,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5716.437286502687</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12049.67961168767</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4495.826723863267</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11072.45188992353</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8837.013579127826</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14809.74565881315</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6304.469073574302</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14169.37234046014</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9892.84683640426</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14038.8761935465</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7464.314588107385</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>13217.62931453097</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6466.556201553478</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>13665.75147917434</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5617.411544176892</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12347.4158309638</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2922,52 +3300,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1140.807186231475</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>933.1626125689976</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1200.768067824266</v>
+        <v>1536.679265993794</v>
       </c>
       <c r="D2" t="n">
-        <v>983.8220267863966</v>
+        <v>1536.679265993794</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.497656939633</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>906.2351698170412</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1214.303025821281</v>
+        <v>1536.679265993794</v>
       </c>
       <c r="H2" t="n">
-        <v>948.122302986751</v>
+        <v>1536.679265993794</v>
       </c>
       <c r="I2" t="n">
-        <v>1011.929962115536</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>853.4793636091271</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1121.71577179358</v>
+        <v>1536.679265993794</v>
       </c>
       <c r="L2" t="n">
-        <v>901.8388526330484</v>
+        <v>1536.679265993794</v>
       </c>
       <c r="M2" t="n">
-        <v>1112.373597777595</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>871.6345253133937</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1157.903975280336</v>
+        <v>1536.679265993794</v>
       </c>
       <c r="P2" t="n">
-        <v>935.0961779971425</v>
+        <v>1536.679265993794</v>
       </c>
     </row>
   </sheetData>
